--- a/阿拉伯字母編碼.xlsx
+++ b/阿拉伯字母編碼.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\rime-arabic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="798">
   <si>
     <t>unicode(dec)</t>
   </si>
@@ -1631,9 +1631,6 @@
     <t>ی</t>
   </si>
   <si>
-    <t>i"</t>
-  </si>
-  <si>
     <t>y"</t>
   </si>
   <si>
@@ -2418,6 +2415,12 @@
   </si>
   <si>
     <t>阿拉伯字母國際</t>
+  </si>
+  <si>
+    <t>y\"</t>
+  </si>
+  <si>
+    <t>i\"</t>
   </si>
 </sst>
 </file>
@@ -2784,8 +2787,8 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6179,7 +6182,7 @@
         <v>244</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" ref="J127:J210" si="9">"ـ"&amp;C127</f>
+        <f t="shared" ref="J127:J191" si="9">"ـ"&amp;C127</f>
         <v>ـز</v>
       </c>
       <c r="K127">
@@ -6593,11 +6596,11 @@
         <v>1</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" ref="H143:H226" si="10">C143&amp;"ـ"</f>
+        <f t="shared" ref="H143:H191" si="10">C143&amp;"ـ"</f>
         <v>سـ</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" ref="I143:I226" si="11">"ـ"&amp;C143&amp;"ـ"</f>
+        <f t="shared" ref="I143:I191" si="11">"ـ"&amp;C143&amp;"ـ"</f>
         <v>ـسـ</v>
       </c>
       <c r="J143" t="str">
@@ -10325,17 +10328,17 @@
         <v>533</v>
       </c>
       <c r="D254" t="s">
-        <v>534</v>
+        <v>797</v>
       </c>
       <c r="E254" t="s">
-        <v>535</v>
+        <v>796</v>
       </c>
       <c r="F254">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H254" t="str">
         <f>C254&amp;"ـ"</f>
@@ -10366,20 +10369,20 @@
         <v>626</v>
       </c>
       <c r="C255" t="s">
+        <v>536</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" t="s">
         <v>538</v>
-      </c>
-      <c r="E255" t="s">
-        <v>539</v>
       </c>
       <c r="F255">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H255" t="str">
         <f>C255&amp;"ـ"</f>
@@ -10416,20 +10419,20 @@
         <v>6D0</v>
       </c>
       <c r="C256" t="s">
+        <v>540</v>
+      </c>
+      <c r="D256" t="s">
         <v>541</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>542</v>
-      </c>
-      <c r="E256" t="s">
-        <v>543</v>
       </c>
       <c r="F256">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" ref="H256:H269" si="24">C256&amp;"ـ"</f>
@@ -10457,17 +10460,17 @@
         <v>620</v>
       </c>
       <c r="C257" t="s">
+        <v>544</v>
+      </c>
+      <c r="D257" t="s">
         <v>545</v>
-      </c>
-      <c r="D257" t="s">
-        <v>546</v>
       </c>
       <c r="F257">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="24"/>
@@ -10492,10 +10495,10 @@
         <v>63F</v>
       </c>
       <c r="C258" t="s">
+        <v>547</v>
+      </c>
+      <c r="D258" t="s">
         <v>548</v>
-      </c>
-      <c r="D258" t="s">
-        <v>549</v>
       </c>
       <c r="F258">
         <f t="shared" si="23"/>
@@ -10524,10 +10527,10 @@
         <v>63D</v>
       </c>
       <c r="C259" t="s">
+        <v>549</v>
+      </c>
+      <c r="D259" t="s">
         <v>550</v>
-      </c>
-      <c r="D259" t="s">
-        <v>551</v>
       </c>
       <c r="F259">
         <f t="shared" si="23"/>
@@ -10556,10 +10559,10 @@
         <v>63E</v>
       </c>
       <c r="C260" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D260" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F260">
         <f t="shared" si="23"/>
@@ -10588,10 +10591,10 @@
         <v>678</v>
       </c>
       <c r="C261" t="s">
+        <v>552</v>
+      </c>
+      <c r="D261" t="s">
         <v>553</v>
-      </c>
-      <c r="D261" t="s">
-        <v>554</v>
       </c>
       <c r="F261">
         <f t="shared" si="23"/>
@@ -10620,20 +10623,20 @@
         <v>6CD</v>
       </c>
       <c r="C262" t="s">
+        <v>554</v>
+      </c>
+      <c r="D262" t="s">
         <v>555</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>556</v>
-      </c>
-      <c r="E262" t="s">
-        <v>557</v>
       </c>
       <c r="F262">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J262" t="str">
         <f t="shared" si="26"/>
@@ -10650,10 +10653,10 @@
         <v>6CE</v>
       </c>
       <c r="C263" t="s">
+        <v>558</v>
+      </c>
+      <c r="D263" t="s">
         <v>559</v>
-      </c>
-      <c r="D263" t="s">
-        <v>560</v>
       </c>
       <c r="F263">
         <f t="shared" si="23"/>
@@ -10682,10 +10685,10 @@
         <v>6D1</v>
       </c>
       <c r="C264" t="s">
+        <v>560</v>
+      </c>
+      <c r="D264" t="s">
         <v>561</v>
-      </c>
-      <c r="D264" t="s">
-        <v>562</v>
       </c>
       <c r="F264">
         <f t="shared" si="23"/>
@@ -10714,10 +10717,10 @@
         <v>775</v>
       </c>
       <c r="C265" t="s">
+        <v>562</v>
+      </c>
+      <c r="D265" t="s">
         <v>563</v>
-      </c>
-      <c r="D265" t="s">
-        <v>564</v>
       </c>
       <c r="F265">
         <f t="shared" si="23"/>
@@ -10746,10 +10749,10 @@
         <v>776</v>
       </c>
       <c r="C266" t="s">
+        <v>564</v>
+      </c>
+      <c r="D266" t="s">
         <v>565</v>
-      </c>
-      <c r="D266" t="s">
-        <v>566</v>
       </c>
       <c r="F266">
         <f t="shared" si="23"/>
@@ -10778,10 +10781,10 @@
         <v>777</v>
       </c>
       <c r="C267" t="s">
+        <v>566</v>
+      </c>
+      <c r="D267" t="s">
         <v>567</v>
-      </c>
-      <c r="D267" t="s">
-        <v>568</v>
       </c>
       <c r="F267">
         <f t="shared" si="23"/>
@@ -10810,10 +10813,10 @@
         <v>8A8</v>
       </c>
       <c r="C268" t="s">
+        <v>568</v>
+      </c>
+      <c r="D268" t="s">
         <v>569</v>
-      </c>
-      <c r="D268" t="s">
-        <v>570</v>
       </c>
       <c r="F268">
         <f t="shared" si="23"/>
@@ -10842,10 +10845,10 @@
         <v>8A9</v>
       </c>
       <c r="C269" t="s">
+        <v>570</v>
+      </c>
+      <c r="D269" t="s">
         <v>571</v>
-      </c>
-      <c r="D269" t="s">
-        <v>572</v>
       </c>
       <c r="F269">
         <f t="shared" si="23"/>
@@ -10874,17 +10877,17 @@
         <v>6D2</v>
       </c>
       <c r="C270" t="s">
+        <v>572</v>
+      </c>
+      <c r="D270" t="s">
         <v>573</v>
-      </c>
-      <c r="D270" t="s">
-        <v>574</v>
       </c>
       <c r="F270">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J270" t="str">
         <f>"ـ"&amp;C270</f>
@@ -10904,10 +10907,10 @@
         <v>6D3</v>
       </c>
       <c r="C271" t="s">
+        <v>575</v>
+      </c>
+      <c r="D271" t="s">
         <v>576</v>
-      </c>
-      <c r="D271" t="s">
-        <v>577</v>
       </c>
       <c r="F271">
         <f t="shared" si="23"/>
@@ -10931,10 +10934,10 @@
         <v>77A</v>
       </c>
       <c r="C272" t="s">
+        <v>577</v>
+      </c>
+      <c r="D272" t="s">
         <v>578</v>
-      </c>
-      <c r="D272" t="s">
-        <v>579</v>
       </c>
       <c r="F272">
         <f t="shared" si="23"/>
@@ -10963,10 +10966,10 @@
         <v>77B</v>
       </c>
       <c r="C273" t="s">
+        <v>579</v>
+      </c>
+      <c r="D273" t="s">
         <v>580</v>
-      </c>
-      <c r="D273" t="s">
-        <v>581</v>
       </c>
       <c r="F273">
         <f t="shared" si="23"/>
@@ -10995,20 +10998,20 @@
         <v>64B</v>
       </c>
       <c r="C274" t="s">
+        <v>581</v>
+      </c>
+      <c r="D274" t="s">
         <v>582</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>583</v>
-      </c>
-      <c r="E274" t="s">
-        <v>584</v>
       </c>
       <c r="F274">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K274">
         <v>1</v>
@@ -11027,20 +11030,20 @@
         <v>64C</v>
       </c>
       <c r="C275" t="s">
+        <v>585</v>
+      </c>
+      <c r="D275" t="s">
         <v>586</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>587</v>
-      </c>
-      <c r="E275" t="s">
-        <v>588</v>
       </c>
       <c r="F275">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -11059,20 +11062,20 @@
         <v>64D</v>
       </c>
       <c r="C276" t="s">
+        <v>589</v>
+      </c>
+      <c r="D276" t="s">
         <v>590</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>591</v>
-      </c>
-      <c r="E276" t="s">
-        <v>592</v>
       </c>
       <c r="F276">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K276">
         <v>1</v>
@@ -11091,20 +11094,20 @@
         <v>64E</v>
       </c>
       <c r="C277" t="s">
+        <v>593</v>
+      </c>
+      <c r="D277" t="s">
         <v>594</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>595</v>
-      </c>
-      <c r="E277" t="s">
-        <v>596</v>
       </c>
       <c r="F277">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K277">
         <v>1</v>
@@ -11120,20 +11123,20 @@
         <v>64F</v>
       </c>
       <c r="C278" t="s">
+        <v>597</v>
+      </c>
+      <c r="D278" t="s">
         <v>598</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>599</v>
-      </c>
-      <c r="E278" t="s">
-        <v>600</v>
       </c>
       <c r="F278">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K278">
         <v>1</v>
@@ -11149,20 +11152,20 @@
         <v>650</v>
       </c>
       <c r="C279" t="s">
+        <v>601</v>
+      </c>
+      <c r="D279" t="s">
         <v>602</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>603</v>
-      </c>
-      <c r="E279" t="s">
-        <v>604</v>
       </c>
       <c r="F279">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -11178,17 +11181,17 @@
         <v>651</v>
       </c>
       <c r="C280" t="s">
+        <v>605</v>
+      </c>
+      <c r="D280" t="s">
         <v>606</v>
-      </c>
-      <c r="D280" t="s">
-        <v>607</v>
       </c>
       <c r="F280">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -11207,17 +11210,17 @@
         <v>652</v>
       </c>
       <c r="C281" t="s">
+        <v>608</v>
+      </c>
+      <c r="D281" t="s">
         <v>609</v>
-      </c>
-      <c r="D281" t="s">
-        <v>610</v>
       </c>
       <c r="F281">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -11233,10 +11236,10 @@
         <v>670</v>
       </c>
       <c r="C282" t="s">
+        <v>611</v>
+      </c>
+      <c r="D282" t="s">
         <v>612</v>
-      </c>
-      <c r="D282" t="s">
-        <v>613</v>
       </c>
       <c r="F282">
         <f t="shared" si="23"/>
@@ -11253,20 +11256,20 @@
         <v>653</v>
       </c>
       <c r="C283" t="s">
+        <v>613</v>
+      </c>
+      <c r="D283" t="s">
         <v>614</v>
       </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>615</v>
-      </c>
-      <c r="E283" t="s">
-        <v>616</v>
       </c>
       <c r="F283">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -11279,17 +11282,17 @@
         <v>6E4</v>
       </c>
       <c r="C284" t="s">
+        <v>617</v>
+      </c>
+      <c r="D284" t="s">
         <v>618</v>
-      </c>
-      <c r="D284" t="s">
-        <v>619</v>
       </c>
       <c r="F284">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -11302,10 +11305,10 @@
         <v>654</v>
       </c>
       <c r="C285" t="s">
+        <v>620</v>
+      </c>
+      <c r="D285" t="s">
         <v>621</v>
-      </c>
-      <c r="D285" t="s">
-        <v>622</v>
       </c>
       <c r="F285">
         <f t="shared" si="23"/>
@@ -11322,10 +11325,10 @@
         <v>655</v>
       </c>
       <c r="C286" t="s">
+        <v>622</v>
+      </c>
+      <c r="D286" t="s">
         <v>623</v>
-      </c>
-      <c r="D286" t="s">
-        <v>624</v>
       </c>
       <c r="F286">
         <f t="shared" si="23"/>
@@ -11342,10 +11345,10 @@
         <v>656</v>
       </c>
       <c r="C287" t="s">
+        <v>624</v>
+      </c>
+      <c r="D287" t="s">
         <v>625</v>
-      </c>
-      <c r="D287" t="s">
-        <v>626</v>
       </c>
       <c r="F287">
         <f t="shared" si="23"/>
@@ -11362,17 +11365,17 @@
         <v>657</v>
       </c>
       <c r="C288" t="s">
+        <v>626</v>
+      </c>
+      <c r="D288" t="s">
         <v>627</v>
-      </c>
-      <c r="D288" t="s">
-        <v>628</v>
       </c>
       <c r="F288">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11385,17 +11388,17 @@
         <v>658</v>
       </c>
       <c r="C289" t="s">
+        <v>629</v>
+      </c>
+      <c r="D289" t="s">
         <v>630</v>
-      </c>
-      <c r="D289" t="s">
-        <v>631</v>
       </c>
       <c r="F289">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11408,17 +11411,17 @@
         <v>659</v>
       </c>
       <c r="C290" t="s">
+        <v>632</v>
+      </c>
+      <c r="D290" t="s">
         <v>633</v>
-      </c>
-      <c r="D290" t="s">
-        <v>634</v>
       </c>
       <c r="F290">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11431,10 +11434,10 @@
         <v>65A</v>
       </c>
       <c r="C291" t="s">
+        <v>635</v>
+      </c>
+      <c r="D291" t="s">
         <v>636</v>
-      </c>
-      <c r="D291" t="s">
-        <v>637</v>
       </c>
       <c r="F291">
         <f t="shared" si="23"/>
@@ -11451,10 +11454,10 @@
         <v>65B</v>
       </c>
       <c r="C292" t="s">
+        <v>637</v>
+      </c>
+      <c r="D292" t="s">
         <v>638</v>
-      </c>
-      <c r="D292" t="s">
-        <v>639</v>
       </c>
       <c r="F292">
         <f t="shared" si="23"/>
@@ -11471,17 +11474,17 @@
         <v>65C</v>
       </c>
       <c r="C293" t="s">
+        <v>639</v>
+      </c>
+      <c r="D293" t="s">
         <v>640</v>
-      </c>
-      <c r="D293" t="s">
-        <v>641</v>
       </c>
       <c r="F293">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11494,17 +11497,17 @@
         <v>65D</v>
       </c>
       <c r="C294" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D294" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F294">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11517,17 +11520,17 @@
         <v>65E</v>
       </c>
       <c r="C295" t="s">
+        <v>644</v>
+      </c>
+      <c r="D295" t="s">
         <v>645</v>
-      </c>
-      <c r="D295" t="s">
-        <v>646</v>
       </c>
       <c r="F295">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11540,10 +11543,10 @@
         <v>6DB</v>
       </c>
       <c r="C296" t="s">
+        <v>647</v>
+      </c>
+      <c r="D296" t="s">
         <v>648</v>
-      </c>
-      <c r="D296" t="s">
-        <v>649</v>
       </c>
       <c r="F296">
         <f t="shared" si="23"/>
@@ -11560,10 +11563,10 @@
         <v>6DC</v>
       </c>
       <c r="C297" t="s">
+        <v>649</v>
+      </c>
+      <c r="D297" t="s">
         <v>650</v>
-      </c>
-      <c r="D297" t="s">
-        <v>651</v>
       </c>
       <c r="F297">
         <f t="shared" si="23"/>
@@ -11580,10 +11583,10 @@
         <v>6DF</v>
       </c>
       <c r="C298" t="s">
+        <v>651</v>
+      </c>
+      <c r="D298" t="s">
         <v>652</v>
-      </c>
-      <c r="D298" t="s">
-        <v>653</v>
       </c>
       <c r="F298">
         <f t="shared" si="23"/>
@@ -11600,10 +11603,10 @@
         <v>6E0</v>
       </c>
       <c r="C299" t="s">
+        <v>653</v>
+      </c>
+      <c r="D299" t="s">
         <v>654</v>
-      </c>
-      <c r="D299" t="s">
-        <v>655</v>
       </c>
       <c r="F299">
         <f t="shared" si="23"/>
@@ -11620,17 +11623,17 @@
         <v>6EB</v>
       </c>
       <c r="C300" t="s">
+        <v>655</v>
+      </c>
+      <c r="D300" t="s">
         <v>656</v>
-      </c>
-      <c r="D300" t="s">
-        <v>657</v>
       </c>
       <c r="F300">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -11643,10 +11646,10 @@
         <v>6EC</v>
       </c>
       <c r="C301" t="s">
+        <v>658</v>
+      </c>
+      <c r="D301" t="s">
         <v>659</v>
-      </c>
-      <c r="D301" t="s">
-        <v>660</v>
       </c>
       <c r="F301">
         <f t="shared" si="23"/>
@@ -11663,17 +11666,17 @@
         <v>65F</v>
       </c>
       <c r="C302" t="s">
+        <v>660</v>
+      </c>
+      <c r="D302" t="s">
         <v>661</v>
-      </c>
-      <c r="D302" t="s">
-        <v>662</v>
       </c>
       <c r="F302">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G302" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -11686,10 +11689,10 @@
         <v>6E3</v>
       </c>
       <c r="C303" t="s">
+        <v>663</v>
+      </c>
+      <c r="D303" t="s">
         <v>664</v>
-      </c>
-      <c r="D303" t="s">
-        <v>665</v>
       </c>
       <c r="F303">
         <f t="shared" si="23"/>
@@ -11706,17 +11709,17 @@
         <v>6EA</v>
       </c>
       <c r="C304" t="s">
+        <v>665</v>
+      </c>
+      <c r="D304" t="s">
         <v>666</v>
-      </c>
-      <c r="D304" t="s">
-        <v>667</v>
       </c>
       <c r="F304">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G304" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -11729,10 +11732,10 @@
         <v>6ED</v>
       </c>
       <c r="C305" t="s">
+        <v>668</v>
+      </c>
+      <c r="D305" t="s">
         <v>669</v>
-      </c>
-      <c r="D305" t="s">
-        <v>670</v>
       </c>
       <c r="F305">
         <f t="shared" si="23"/>
@@ -11749,20 +11752,20 @@
         <v>66A</v>
       </c>
       <c r="C306" t="s">
+        <v>670</v>
+      </c>
+      <c r="D306" t="s">
         <v>671</v>
       </c>
-      <c r="D306" t="s">
-        <v>672</v>
-      </c>
       <c r="E306" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F306">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G306" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N306">
         <v>1</v>
@@ -11778,17 +11781,17 @@
         <v>66D</v>
       </c>
       <c r="C307" t="s">
+        <v>673</v>
+      </c>
+      <c r="D307" t="s">
         <v>674</v>
-      </c>
-      <c r="D307" t="s">
-        <v>675</v>
       </c>
       <c r="F307">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G307" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N307">
         <v>1</v>
@@ -11804,17 +11807,17 @@
         <v>6D4</v>
       </c>
       <c r="C308" t="s">
+        <v>676</v>
+      </c>
+      <c r="D308" t="s">
         <v>677</v>
-      </c>
-      <c r="D308" t="s">
-        <v>678</v>
       </c>
       <c r="F308">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N308">
         <v>1</v>
@@ -11830,20 +11833,20 @@
         <v>640</v>
       </c>
       <c r="C309" t="s">
+        <v>679</v>
+      </c>
+      <c r="D309" t="s">
         <v>680</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
         <v>681</v>
-      </c>
-      <c r="E309" t="s">
-        <v>682</v>
       </c>
       <c r="F309">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K309">
         <v>1</v>
@@ -11862,17 +11865,17 @@
         <v>6D6</v>
       </c>
       <c r="C310" t="s">
+        <v>683</v>
+      </c>
+      <c r="D310" t="s">
         <v>684</v>
-      </c>
-      <c r="D310" t="s">
-        <v>685</v>
       </c>
       <c r="F310">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N310">
         <v>1</v>
@@ -11888,17 +11891,17 @@
         <v>6D7</v>
       </c>
       <c r="C311" t="s">
+        <v>686</v>
+      </c>
+      <c r="D311" t="s">
         <v>687</v>
-      </c>
-      <c r="D311" t="s">
-        <v>688</v>
       </c>
       <c r="F311">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -11911,17 +11914,17 @@
         <v>6D8</v>
       </c>
       <c r="C312" t="s">
+        <v>688</v>
+      </c>
+      <c r="D312" t="s">
         <v>689</v>
-      </c>
-      <c r="D312" t="s">
-        <v>690</v>
       </c>
       <c r="F312">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G312" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -11934,10 +11937,10 @@
         <v>6E2</v>
       </c>
       <c r="C313" t="s">
+        <v>691</v>
+      </c>
+      <c r="D313" t="s">
         <v>692</v>
-      </c>
-      <c r="D313" t="s">
-        <v>693</v>
       </c>
       <c r="F313">
         <f t="shared" si="23"/>
@@ -11954,17 +11957,17 @@
         <v>6D9</v>
       </c>
       <c r="C314" t="s">
+        <v>693</v>
+      </c>
+      <c r="D314" t="s">
         <v>694</v>
-      </c>
-      <c r="D314" t="s">
-        <v>695</v>
       </c>
       <c r="F314">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G314" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -11977,17 +11980,17 @@
         <v>6DA</v>
       </c>
       <c r="C315" t="s">
+        <v>696</v>
+      </c>
+      <c r="D315" t="s">
         <v>697</v>
-      </c>
-      <c r="D315" t="s">
-        <v>698</v>
       </c>
       <c r="F315">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -12000,17 +12003,17 @@
         <v>6E1</v>
       </c>
       <c r="C316" t="s">
+        <v>699</v>
+      </c>
+      <c r="D316" t="s">
         <v>700</v>
-      </c>
-      <c r="D316" t="s">
-        <v>701</v>
       </c>
       <c r="F316">
         <f t="shared" ref="F316:F354" si="29">LEN(C316)</f>
         <v>1</v>
       </c>
       <c r="G316" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -12023,10 +12026,10 @@
         <v>6E7</v>
       </c>
       <c r="C317" t="s">
+        <v>702</v>
+      </c>
+      <c r="D317" t="s">
         <v>703</v>
-      </c>
-      <c r="D317" t="s">
-        <v>704</v>
       </c>
       <c r="F317">
         <f t="shared" si="29"/>
@@ -12043,10 +12046,10 @@
         <v>6E8</v>
       </c>
       <c r="C318" t="s">
+        <v>704</v>
+      </c>
+      <c r="D318" t="s">
         <v>705</v>
-      </c>
-      <c r="D318" t="s">
-        <v>706</v>
       </c>
       <c r="F318">
         <f t="shared" si="29"/>
@@ -12063,17 +12066,17 @@
         <v>200C</v>
       </c>
       <c r="C319" t="s">
+        <v>706</v>
+      </c>
+      <c r="D319" t="s">
         <v>707</v>
-      </c>
-      <c r="D319" t="s">
-        <v>708</v>
       </c>
       <c r="F319">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N319">
         <v>1</v>
@@ -12089,17 +12092,17 @@
         <v>200D</v>
       </c>
       <c r="C320" t="s">
+        <v>709</v>
+      </c>
+      <c r="D320" t="s">
         <v>710</v>
-      </c>
-      <c r="D320" t="s">
-        <v>711</v>
       </c>
       <c r="F320">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N320">
         <v>1</v>
@@ -12115,17 +12118,17 @@
         <v>200E</v>
       </c>
       <c r="C321" t="s">
+        <v>712</v>
+      </c>
+      <c r="D321" t="s">
         <v>713</v>
-      </c>
-      <c r="D321" t="s">
-        <v>714</v>
       </c>
       <c r="F321">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N321">
         <v>1</v>
@@ -12141,17 +12144,17 @@
         <v>200F</v>
       </c>
       <c r="C322" t="s">
+        <v>715</v>
+      </c>
+      <c r="D322" t="s">
         <v>716</v>
-      </c>
-      <c r="D322" t="s">
-        <v>717</v>
       </c>
       <c r="F322">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N322">
         <v>1</v>
@@ -12167,10 +12170,10 @@
         <v>674</v>
       </c>
       <c r="C323" t="s">
+        <v>718</v>
+      </c>
+      <c r="D323" t="s">
         <v>719</v>
-      </c>
-      <c r="D323" t="s">
-        <v>720</v>
       </c>
       <c r="F323">
         <f t="shared" si="29"/>
@@ -12187,10 +12190,10 @@
         <v>6E5</v>
       </c>
       <c r="C324" t="s">
+        <v>720</v>
+      </c>
+      <c r="D324" t="s">
         <v>721</v>
-      </c>
-      <c r="D324" t="s">
-        <v>722</v>
       </c>
       <c r="F324">
         <f t="shared" si="29"/>
@@ -12207,10 +12210,10 @@
         <v>6E6</v>
       </c>
       <c r="C325" t="s">
+        <v>722</v>
+      </c>
+      <c r="D325" t="s">
         <v>723</v>
-      </c>
-      <c r="D325" t="s">
-        <v>724</v>
       </c>
       <c r="F325">
         <f t="shared" si="29"/>
@@ -12227,10 +12230,10 @@
         <v>8AD</v>
       </c>
       <c r="C326" t="s">
+        <v>724</v>
+      </c>
+      <c r="D326" t="s">
         <v>725</v>
-      </c>
-      <c r="D326" t="s">
-        <v>726</v>
       </c>
       <c r="F326">
         <f t="shared" si="29"/>
@@ -12247,17 +12250,17 @@
         <v>2018</v>
       </c>
       <c r="C327" t="s">
+        <v>726</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="F327">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K327">
         <v>1</v>
@@ -12273,17 +12276,17 @@
         <v>2019</v>
       </c>
       <c r="C328" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D328" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F328">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K328">
         <v>1</v>
@@ -12299,17 +12302,17 @@
         <v>660</v>
       </c>
       <c r="C329" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D329" t="s">
         <v>732</v>
-      </c>
-      <c r="D329" t="s">
-        <v>733</v>
       </c>
       <c r="F329">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G329" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -12322,17 +12325,17 @@
         <v>661</v>
       </c>
       <c r="C330" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D330" t="s">
         <v>735</v>
-      </c>
-      <c r="D330" t="s">
-        <v>736</v>
       </c>
       <c r="F330">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G330" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -12345,17 +12348,17 @@
         <v>662</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D331" t="s">
         <v>738</v>
-      </c>
-      <c r="D331" t="s">
-        <v>739</v>
       </c>
       <c r="F331">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -12368,17 +12371,17 @@
         <v>663</v>
       </c>
       <c r="C332" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D332" t="s">
         <v>741</v>
-      </c>
-      <c r="D332" t="s">
-        <v>742</v>
       </c>
       <c r="F332">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G332" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -12391,17 +12394,17 @@
         <v>664</v>
       </c>
       <c r="C333" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D333" t="s">
         <v>744</v>
-      </c>
-      <c r="D333" t="s">
-        <v>745</v>
       </c>
       <c r="F333">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -12414,17 +12417,17 @@
         <v>665</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D334" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F334">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G334" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -12437,17 +12440,17 @@
         <v>666</v>
       </c>
       <c r="C335" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D335" t="s">
         <v>749</v>
-      </c>
-      <c r="D335" t="s">
-        <v>750</v>
       </c>
       <c r="F335">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -12460,17 +12463,17 @@
         <v>667</v>
       </c>
       <c r="C336" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D336" t="s">
         <v>752</v>
-      </c>
-      <c r="D336" t="s">
-        <v>753</v>
       </c>
       <c r="F336">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G336" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12483,17 +12486,17 @@
         <v>668</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D337" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F337">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G337" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12506,17 +12509,17 @@
         <v>669</v>
       </c>
       <c r="C338" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D338" t="s">
         <v>757</v>
-      </c>
-      <c r="D338" t="s">
-        <v>758</v>
       </c>
       <c r="F338">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G338" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -12529,17 +12532,17 @@
         <v>66B</v>
       </c>
       <c r="C339" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D339" t="s">
         <v>760</v>
-      </c>
-      <c r="D339" t="s">
-        <v>761</v>
       </c>
       <c r="F339">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -12552,17 +12555,17 @@
         <v>66C</v>
       </c>
       <c r="C340" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D340" t="s">
         <v>763</v>
-      </c>
-      <c r="D340" t="s">
-        <v>764</v>
       </c>
       <c r="F340">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G340" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -12575,10 +12578,10 @@
         <v>61E</v>
       </c>
       <c r="C341" t="s">
+        <v>765</v>
+      </c>
+      <c r="D341" t="s">
         <v>766</v>
-      </c>
-      <c r="D341" t="s">
-        <v>767</v>
       </c>
       <c r="F341">
         <f t="shared" si="29"/>
@@ -12595,40 +12598,40 @@
         <v>6DD</v>
       </c>
       <c r="C342" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D342" t="s">
         <v>768</v>
-      </c>
-      <c r="D342" t="s">
-        <v>769</v>
       </c>
       <c r="F342">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343">
-        <f t="shared" ref="A343:A356" si="30">_xlfn.UNICODE(C343)</f>
+        <f t="shared" ref="A343:A354" si="30">_xlfn.UNICODE(C343)</f>
         <v>1758</v>
       </c>
       <c r="B343" t="str">
-        <f t="shared" ref="B343:B368" si="31">DEC2HEX(A343)</f>
+        <f t="shared" ref="B343:B354" si="31">DEC2HEX(A343)</f>
         <v>6DE</v>
       </c>
       <c r="C343" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D343" t="s">
         <v>771</v>
-      </c>
-      <c r="D343" t="s">
-        <v>772</v>
       </c>
       <c r="F343">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -12641,10 +12644,10 @@
         <v>6E9</v>
       </c>
       <c r="C344" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D344" t="s">
         <v>774</v>
-      </c>
-      <c r="D344" t="s">
-        <v>775</v>
       </c>
       <c r="F344">
         <f t="shared" si="29"/>
@@ -12661,10 +12664,10 @@
         <v>6F0</v>
       </c>
       <c r="C345" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D345" t="s">
         <v>776</v>
-      </c>
-      <c r="D345" t="s">
-        <v>777</v>
       </c>
       <c r="F345">
         <f t="shared" si="29"/>
@@ -12681,10 +12684,10 @@
         <v>6F1</v>
       </c>
       <c r="C346" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D346" t="s">
         <v>778</v>
-      </c>
-      <c r="D346" t="s">
-        <v>779</v>
       </c>
       <c r="F346">
         <f t="shared" si="29"/>
@@ -12701,10 +12704,10 @@
         <v>6F2</v>
       </c>
       <c r="C347" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D347" t="s">
         <v>780</v>
-      </c>
-      <c r="D347" t="s">
-        <v>781</v>
       </c>
       <c r="F347">
         <f t="shared" si="29"/>
@@ -12721,10 +12724,10 @@
         <v>6F3</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D348" t="s">
         <v>782</v>
-      </c>
-      <c r="D348" t="s">
-        <v>783</v>
       </c>
       <c r="F348">
         <f t="shared" si="29"/>
@@ -12741,10 +12744,10 @@
         <v>6F4</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D349" t="s">
         <v>784</v>
-      </c>
-      <c r="D349" t="s">
-        <v>785</v>
       </c>
       <c r="F349">
         <f t="shared" si="29"/>
@@ -12761,10 +12764,10 @@
         <v>6F5</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D350" t="s">
         <v>786</v>
-      </c>
-      <c r="D350" t="s">
-        <v>787</v>
       </c>
       <c r="F350">
         <f t="shared" si="29"/>
@@ -12781,10 +12784,10 @@
         <v>6F6</v>
       </c>
       <c r="C351" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D351" t="s">
         <v>788</v>
-      </c>
-      <c r="D351" t="s">
-        <v>789</v>
       </c>
       <c r="F351">
         <f t="shared" si="29"/>
@@ -12801,10 +12804,10 @@
         <v>6F7</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D352" t="s">
         <v>790</v>
-      </c>
-      <c r="D352" t="s">
-        <v>791</v>
       </c>
       <c r="F352">
         <f t="shared" si="29"/>
@@ -12821,10 +12824,10 @@
         <v>6F8</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D353" t="s">
         <v>792</v>
-      </c>
-      <c r="D353" t="s">
-        <v>793</v>
       </c>
       <c r="F353">
         <f t="shared" si="29"/>
@@ -12841,10 +12844,10 @@
         <v>6F9</v>
       </c>
       <c r="C354" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D354" t="s">
         <v>794</v>
-      </c>
-      <c r="D354" t="s">
-        <v>795</v>
       </c>
       <c r="F354">
         <f t="shared" si="29"/>
